--- a/001 - Data/Effects of Social Media (Responses).xlsx
+++ b/001 - Data/Effects of Social Media (Responses).xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvest\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvest\Documents\000 - Latyr Kwasi T\000-PROFESSIONAL\001A - EDUCATION in CANADA\006 - UoT\001-Data Analytics Bootcamp\8 - Project #1\Best_Team_Project_1\001 - Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5E9691-7919-4901-B8E5-2E6BEF0A5E22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4B0C0F-B07A-48F7-82A2-B57B769BD080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Effects of Social Media (Respon" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Effects of Social Media (Respon'!$A$1:$N$292</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -312,7 +316,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +363,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,27 +650,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="20" width="21.5546875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -8261,6 +8274,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N292" xr:uid="{17553B69-9BEB-4208-ABA3-0B054207E907}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>